--- a/ResultadoEleicoesDistritos/COIMBRA_SOURE.xlsx
+++ b/ResultadoEleicoesDistritos/COIMBRA_SOURE.xlsx
@@ -597,64 +597,64 @@
         <v>4763</v>
       </c>
       <c r="H2" t="n">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="I2" t="n">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="J2" t="n">
-        <v>1994</v>
+        <v>1989</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" t="n">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N2" t="n">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>8</v>
+      </c>
+      <c r="R2" t="n">
+        <v>25</v>
+      </c>
+      <c r="S2" t="n">
+        <v>212</v>
+      </c>
+      <c r="T2" t="n">
+        <v>369</v>
+      </c>
+      <c r="U2" t="n">
+        <v>22</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3061</v>
+      </c>
+      <c r="W2" t="n">
+        <v>4</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3011</v>
+      </c>
+      <c r="Y2" t="n">
         <v>5</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>23</v>
-      </c>
-      <c r="S2" t="n">
-        <v>259</v>
-      </c>
-      <c r="T2" t="n">
-        <v>316</v>
-      </c>
-      <c r="U2" t="n">
-        <v>29</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3082</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2983</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3</v>
-      </c>
       <c r="Z2" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
